--- a/downloaded_files/EECS112_Tutorial-35293.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35293.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -118,6 +118,15 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Abdelrahman Hatem Maghawry awad Omran </x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
   </x:si>
   <x:si>
     <x:t>1230206</x:t>
@@ -314,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -614,7 +623,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1023,7 +1032,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45920.0905868056</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6774783565</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45906.6774783565</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.665121794</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.665121794</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1296,6 +1305,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45909.6620260764</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35293.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35293.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -154,6 +154,15 @@
   </x:si>
   <x:si>
     <x:t>Mazen Mohamed Helmy Sayed Othman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1162125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مايكل توفيق حنا سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Michael Tawfik Hanna Soliman</x:t>
   </x:si>
   <x:si>
     <x:t>1220020</x:t>
@@ -323,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -623,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1160,7 +1169,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6774783565</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1192,7 +1201,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45906.6774783565</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1224,7 +1233,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.665121794</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1256,7 +1265,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.665121794</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1337,6 +1346,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45909.6620260764</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35293.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35293.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -138,6 +138,15 @@
     <x:t>Ali Tarek Mohamed Hussein Al Hakim Mohamed Hussein</x:t>
   </x:si>
   <x:si>
+    <x:t>1230217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد قناوي محمود مصلح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Kenawi Mahmoud Mosleh</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230077</x:t>
   </x:si>
   <x:si>
@@ -217,6 +226,12 @@
   </x:si>
   <x:si>
     <x:t>Youssef Safwat Wahba Zekry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد صلاح مصلحي</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -332,7 +347,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +647,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -642,7 +657,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.000625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="50.160625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1105,7 +1120,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45927.4146389699</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1137,7 +1152,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1169,7 +1184,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45922.009746956</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1201,7 +1216,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6774783565</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1233,7 +1248,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45906.6774783565</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1265,7 +1280,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.665121794</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1297,7 +1312,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.665121794</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1329,7 +1344,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1361,7 +1376,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1378,6 +1393,68 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45909.6620260764</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s"/>
+      <x:c r="E24" s="3">
+        <x:v>45927.4493103819</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35293.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35293.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Hassan Elmessary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230182</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ديفيد حسنى دانيال رؤفائيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>David Hosny Danial Rofaeil</x:t>
   </x:si>
   <x:si>
     <x:t>4240016</x:t>
@@ -347,7 +338,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -647,7 +638,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -894,11 +885,9 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45907.4510422454</x:v>
+        <x:v>45907.4208133102</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -921,14 +910,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.4208133102</x:v>
+        <x:v>45907.418918287</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -960,7 +951,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.418918287</x:v>
+        <x:v>45907.419212581</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -992,7 +983,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.419212581</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1024,7 +1015,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45920.0905868056</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1056,7 +1047,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.0905868056</x:v>
+        <x:v>45907.4148139699</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1088,7 +1079,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45927.4146389699</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1120,7 +1111,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4146389699</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1152,7 +1143,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1184,7 +1175,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1216,7 +1207,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45922.009746956</x:v>
+        <x:v>45906.6774783565</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1248,7 +1239,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6774783565</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1280,7 +1271,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.665121794</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1312,7 +1303,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.665121794</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1344,7 +1335,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1376,7 +1367,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1404,11 +1395,9 @@
       <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45927.4493103819</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1425,36 +1414,6 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s"/>
-      <x:c r="E24" s="3">
-        <x:v>45927.4493103819</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35293.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35293.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -199,15 +199,6 @@
   </x:si>
   <x:si>
     <x:t>Haya Ahmed abdelsalam el Naggar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف ايهاب سمير عفيفى مصطفى الشاهد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOUSSEF EHAB SAMIR AFIFY</x:t>
   </x:si>
   <x:si>
     <x:t>1230327</x:t>
@@ -338,7 +329,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -638,7 +629,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1335,7 +1326,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1363,11 +1354,9 @@
       <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45927.4493103819</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1384,36 +1373,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s"/>
-      <x:c r="E23" s="3">
-        <x:v>45927.4493103819</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35293.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35293.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -172,15 +172,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Raed Sayed Foda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم أيمن عمران عبدالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Ayman Omran Abdallah</x:t>
   </x:si>
   <x:si>
     <x:t>1230124</x:t>
@@ -329,7 +320,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -629,7 +620,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1230,7 +1221,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.665121794</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1262,7 +1253,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.665121794</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1294,7 +1285,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1322,11 +1313,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45927.4493103819</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1343,36 +1332,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s"/>
-      <x:c r="E22" s="3">
-        <x:v>45927.4493103819</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35293.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35293.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -118,15 +118,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230206</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي طارق محمد حسين الحكيم محمد حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Tarek Mohamed Hussein Al Hakim Mohamed Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1230217</x:t>
@@ -320,7 +311,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -620,7 +611,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -629,7 +620,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="50.160625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.730625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1029,7 +1020,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4148139699</x:v>
+        <x:v>45927.4146389699</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1061,7 +1052,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4146389699</x:v>
+        <x:v>45907.6714037847</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1093,7 +1084,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6714037847</x:v>
+        <x:v>45907.4206368403</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1125,7 +1116,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4206368403</x:v>
+        <x:v>45922.009746956</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1157,7 +1148,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45922.009746956</x:v>
+        <x:v>45906.6774783565</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1189,7 +1180,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6774783565</x:v>
+        <x:v>45907.665121794</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1221,7 +1212,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.665121794</x:v>
+        <x:v>45907.4207956829</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1253,7 +1244,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4207956829</x:v>
+        <x:v>45909.6620260764</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1281,11 +1272,9 @@
       <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45909.6620260764</x:v>
+        <x:v>45927.4493103819</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1302,36 +1291,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s"/>
-      <x:c r="E21" s="3">
-        <x:v>45927.4493103819</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
